--- a/Uncertainties_Dynamic_Planning/plot_distribution_uniform_low10_high150/R5/Intermodal_EGS_data_dynamic_uniform_low10_high150_table84.xlsx
+++ b/Uncertainties_Dynamic_Planning/plot_distribution_uniform_low10_high150/R5/Intermodal_EGS_data_dynamic_uniform_low10_high150_table84.xlsx
@@ -5844,7 +5844,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[179, 298]</t>
+          <t>[179, 192]</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[179, 298]</t>
+          <t>[179, 192]</t>
         </is>
       </c>
       <c r="G3" t="n">
